--- a/content_20241122.xlsx
+++ b/content_20241122.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Content</t>
+          <t>Context</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -1653,926 +1653,6 @@
       <c r="E53" t="inlineStr">
         <is>
           <t>AWS CloudFormation 現在提供採用 Amazon Q Developer 技術的生成式 AI 輔助，有助於對不成功的 CloudFormation 部署進行疑難排解。這項新功能提供易於理解的分析和可操作的步驟，以簡化在 CloudFormation 部署期間最常遇到的資源佈建錯誤適用的解決方法。建立或修改 CloudFormation 堆疊時，CloudFormation 可能會發生資源佈建方面的錯誤，例如，缺少 EC2 執行個體的必要參數或權限不足。過去，對失敗的堆疊操作進行疑難排解可能是耗時的程序。在識別失敗的根本原因之後，您必須在部落格和文件中搜尋解決方案並判斷後續步驟，這會導致解決時間拉長。現在，當您在 CloudFormation 主控台中檢閱失敗的堆疊操作時，CloudFormation 會自動醒目提示失敗的可能根本原因。您可以按一下錯誤警示方塊中的「使用 Q 進行診斷」按鈕，Amazon Q Developer 將會提供人類可讀的錯誤分析，協助您了解出錯的環節。如需進一步協助，您可以按一下「幫我解決」按鈕，接收根據您特定的失敗案例自訂的可行解決步驟，以協助您加速解決錯誤。若要開始使用，請開啟 CloudFormation 主控台，並導覽至已佈建堆疊的堆疊事件標籤。此功能適用於可使用 AWS CloudFormation 和 Amazon Q Developer 的 AWS 區域。如需服務可用性詳細資訊，請參閱 AWS 區域表。若要進一步了解此功能，請瀏覽我們的使用者指南。</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Amazon Connect 現在支援九種額外的語言，用於預測、容量規劃和排程</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-connect-additional-languages-forecasting-capacity-planning-scheduling</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Amazon Connect 現在支援九種額外的語言，用於預測、容量規劃和排程。現在支援的新語言包括：加拿大法語、中文 (簡體和繁體)、法語、德語、義大利語、日語、韓語、葡萄牙語 (巴西) 和西班牙語。這些新語言適用於所有提供 Amazon Connect 預測、容量規劃和排程的AWS 區域。若要進一步了解 Amazon Connect 客服人員排班功能，請按一下此處。</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>OpenSearch 向量引擎在 Amazon OpenSearch Service 上新增對 UltraWarm 的支援</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/opensearch-vector-engine-ultrawarm-amazon-opensearch-service</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>UltraWarm 是專為 Amazon OpenSearch Service 設計的全受管暖儲存層，可有效降低成本。使用 OpenSearch 2.17+ 網域，您現在可以將 k-NN (向量) 索引儲存在 UltraWarm 儲存中，從而降低透過暖和冷儲存層提供不常存取 k-NN 索引的成本。使用 UltraWarm 儲存，您可以進一步最佳化 OpenSearch 向量引擎上的向量搜索工作負載成本。若要進一步了解，請參閱文件。</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>AWS Compute Optimizer 現在支援 Amazon Aurora 的規模調整建議</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/aws-compute-optimizer-rightsizing-recommendations-amazon-aurora</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>AWS Compute Optimizer 現在提供 Amazon Aurora 資料庫執行個體的建議。這些建議有助於您識別閒置的資料庫執行個體，選擇最佳資料庫執行個體類別，以便降低未使用資源的成本，並提高佈建不足工作負載的效能。AWS Compute Optimizer 會自動分析 Amazon CloudWatch 指標，例如 CPU 使用率、網路輸送量和資料庫連線，為執行 Amazon Aurora MySQL 相容版和 Aurora PostgreSQL 相容版引擎的資料庫執行個體產生建議。若在資料庫執行個體上啟用Amazon RDS Performance Insights，Compute Optimizer 會分析額外指標 (例如 DBLoad 和記憶體不足計數器)，讓您獲得更多洞察以選擇最佳資料庫執行個體組態。隨著這次推出，AWS Compute Optimizer 現已支援為 Amazon RDS for MySQL、Amazon RDS for PostgreSQL 和 Amazon Aurora 資料庫引擎提供建議。這項新功能在所有提供 AWS Compute Optimizer 的AWS 區域中都能使用，AWS GovCloud (美國) 和中國區域除外。若要進一步了解新功能更新，請瀏覽 Compute Optimizer商品頁面和使用者指南。</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>AWS B2B 資料交換功能現在支援所有的 X12 交易集</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/aws-b-2-b-data-interchange-x12-transaction-sets</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>AWS B2B 資料交換功能現在支援 4010、4030、4050、4060 和 5010 版的所有 X12 交易。4050 和 4060 版是該服務之前尚未提供的新版本。這些交易和版本都支援傳入和傳出使用案例，可讓您將更多的雙向 EDI 工作負載移轉至 AWS。此次推出的內容使製造業、物流和金融服務行業的客戶能夠驗證、解析和轉換與其貿易夥伴交換的更多種類 X12 交易，因此這類客戶將會格外受益。支援的新交易集包括用於預留運輸容量、申請抵押保險給付，以及確認採購單、交貨和退貨的交易集。這些新的 X12 交易集和版本適用於所有提供 B2B 資料交換的 AWS 區域。您可以在文件中找到這些交易的完整清單，以及其說明和類別。若要進一步了解如何透過 B2B 資料交換建立和執行雙向 EDI 工作流程，請參加自主進度研討會。</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Amazon CloudFront 現在支援 Anycast 靜態 IP</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-cloudfront-anycast-static-ips</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Amazon CloudFront 推出 Anycast 靜態 IP，為客戶提供專屬的 IP 位址清單，用於連接全球所有 CloudFront 邊緣節點。通常，CloudFront 會使用輪換的 IP 位址來提供流量。實作 Anycast 靜態 IP 的客戶將獲得專屬的靜態 IP 位址清單，用於其工作負載。CloudFront Anycast 靜態 IP 可讓客戶向合作夥伴和其客戶提供專屬的 IP 位址清單，以增強安全性並簡化各種使用案例中的網路管理。例如，一個常見的使用案例是將靜態 IP 位址加入網路防火牆的允許清單。CloudFront 支援所有邊緣節點的 Anycast 靜態 IP。這不包括由 Sinnet 營運的 Amazon Web Services 中國 (北京) 區域和由 NWCD 營運的 Amazon Web Services 中國 (寧夏) 區域。CloudFormation 支援即將推出。了解更多有關 Anycast 靜態 IP 位址的資訊，請參閱此處。如需詳細資訊，請參閱Amazon CloudFront 開發人員指南。如需了解定價，請參閱CloudFront 定價。</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Bottlerocket 宣布推出新的 AMI，這些 AMI 預先設定為使用 FIPS 140-3 驗證的加密模組。</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/bottlerocket-amis-fips140-3-validated-cryptographic-modules</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>今天，AWS 宣布推出適用於 Bottlerocket 的新 AMI，這些 AMI 預先設定為使用 FIPS 140-3 驗證的加密模組，包括Amazon Linux 2023 Kernel Crypto API和AWS-LC。Bottlerocket 是一個以 Linux 為基礎的作業系統，專為執行容器而設計，專注於安全性、最小的佔用空間以及安全更新。使用這些啟用 FIPS 的 Bottlerocket AMI，主機軟體僅使用 FIPS 核准的加密演算法來進行 TLS 連線。這包括與 AWS 服務的連線，例如 EC2 和 Amazon Elastic Container Registry (ECR)。此外，在提供 FIPS 端點的區域，AMI 預設會自動為這些服務使用符合 FIPS 規範的端點，簡化容器化工作負載的安全組態。所有商業和 AWS GovCloud (美國) 區域現在都可以使用啟用 FIPS 的 Bottlerocket AMI。若要查看支援 FIPS 端點的區域，請造訪AWS FIPS 140-3 頁面。若要開始使用 Bottlerocket，請參閱Bottlerocket 使用者指南。您也可以造訪Bottlerocket 產品頁面，和探索Bottlerocket GitHub 儲存庫以獲取更多資訊。</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>宣布使用 AWS Database Migration Service 自動將 EC2 資料庫遷移至 Amazon RDS</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/auto-migration-ec2-databases-amazon-rds-aws-database-migration-service</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>AWS 宣佈推出Amazon Relational Database Service(Amazon RDS) 的「一鍵移至受管」功能，可讓您輕鬆且無縫地將自我管理的 MySQL、PostgreSQL 或 MariaDB 資料庫遷移至對等的 Amazon RDS 或 Amazon Aurora 資料庫。使用 Amazon RDS 主控台上的「一鍵移至受管」功能，您可以將在 Amazon EC2 伺服器上執行的自我管理資料庫遷移至受管的 Amazon RDS 或 Aurora 資料庫。此功能可免除基礎架構設定的負擔，讓您能輕鬆且無縫地為應用程式的資料庫工作負載轉換平台至 Amazon RDS。Amazon RDS 使用資料遷移服務(DMS) 的同質遷移 API，來抽象化並自動化整個遷移過程，包括啟動和完成遷移所需的網路與系統組態。由於整個遷移都是使用暫時環境和使用原生資料庫工具來執行，因此程序具有彈性、可擴展性且具有成本效益。RDS 的「一鍵移至受管」功能現已在支援同質資料遷移的 AWS 商業區域內的 RDS 主控台上推出。造訪Amazon RDS 主控台以立即開始使用。請參閱RDS 使用者指南或Aurora 使用者指南以進一步了解相關資訊。</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>AWS re:Post Private 現已與 Amazon Bedrock 整合，為組織提供情境化知識</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/aws-repost-private-integrated-amazon-bedrock</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>今天，AWS re:Post Private 宣布與 Amazon Bedrock 整合，開啟客戶組織情境化知識管理的新時代。此功能將傳統的組織知識實務轉換為一個動態的協作智慧系統，結合人類專業知識與 AI 能力，共同建立集體智慧。此項整合的核心是適用於 re:Post Private 的 re:Post Agent，這是一款由 AI 驅動的助理，能夠從豐富的精選知識資源儲存庫中，為客戶問題提供高度情境化的技術解答。適用於 re:Post Private 的 re:Post Agent 獨特地結合了客戶專屬的私有知識與 AWS 廣泛的公有知識庫，確保回應既能快速傳送，又能根據每個組織的特定情境和需求量身打造。透過採用 re:Post Private 與這項新整合，組織現在可以充分利用協作智慧的潛力。這種結合了人類洞察與 AI 效率的強大聯盟，為企業內的問題解決、創新與知識共享開闢了新途徑。使用re:Post Private，釋放協作智慧的轉型可能性，並提升組織的知識管理能力。</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>AWS Compute Optimizer 現在支援閒置資源建議</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/aws-compute-optimizer-idle-resource-recommendation</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>今天，AWS 宣布 AWS Compute Optimizer 現已支援協助您識別閒置 AWS 資源的建議。透過這項新建議類型，您將能夠識別未使用且可能是關閉或刪除的候選資源，從而節省成本。使用此新的閒置資源建議，您將能夠識別閒置 EC2 執行個體、EC2 Auto Scaling 群組、EBS 磁碟區、在 Fargate 上執行的 ECS 服務，以及 RDS 執行個體。您可以檢視關閉或刪除這些閒置資源所帶來的總節省潛力。Compute Optimizer 會分析連續 14 天的使用情況歷史記錄，以驗證資源是否閒置，以提供可信任的節省機會。您也可以透過成本最佳化中心檢視組織中所有 AWS 帳戶的閒置資源建議，以及針對相同資源的其他建議進行解除複製的預估節省。如需有關提供 Compute Optimizer 之 AWS 區域的詳細資訊，請參閱AWS 區域表。如需有關 Compute Optimizer 的詳細資訊，請造訪我們的產品頁面和文件。您可以透過 AWS 管理主控台、AWS CLI 和 AWS SDK，開始使用 AWS Compute Optimizer。</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Amazon QuickSight 支援 IAM Identity Center 使用者，透過 API 功能的精細許可。</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-quicksight-fine-grained-permissions-capabilities-apis-iam-identity-center-users</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Amazon QuickSight現在支援 IAM Identity Center 使用者的使用者層級自訂許可設定檔指派。自訂許可設定檔讓管理員能透過將設定檔分配給使用者，限制他們在 QuickSight 應用程式中的功能存取許可。自訂許可設定檔會定義對使用者或角色停用哪些功能。例如，管理員可以禁止特定使用者匯出資料為 Excel 和 CSV，並防止使用者分享 QuickSight 資產。自訂許可設定檔可透過以下 API 進行管理：CreateCustomPermissions、ListCustomPermissions、DescribeCustomPermissions、UpdateCustomPermissions 和 DeleteCustomPermissions。將自訂許可分配給使用者可透過以下 API 進行管理：UpdateUserCustomPermission 和 DeleteUserCustomPermission。QuickSight 中的所有身分類型都支援這些 API。所有提供 Amazon QuickSight 的AWS 區域皆開放使用此功能。若要進一步了解，請參閱自訂對 Amazon QuickSight 功能的存取。</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Amazon Kinesis Data Streams 隨需模式支援高達 10 GB/s 的串流寫入</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-kinesis-data-streams-on-demand-mode-writing-up-10gbs</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Amazon Kinesis Data Streams 隨需模式現在可自動擴展，以支援每個資料流寫入高達 10 GB/s 的串流應用程式，以及每個資料流讀取高達 20 GB/s 的消費者。相較於先前每個串流寫入 2 GB/s 和讀取 4 GB/s 的限制，提升了 5 倍。Amazon Kinesis Data Streams 是一種無伺服器的資料串流服務，可讓客戶建立發佈和使用即時資料串流的解耦應用程式。它與超過 40 個 AWS 及第三方服務整合，幫助客戶輕鬆建立即時串流處理、分析及機器學習應用程式。客戶使用 Kinesis Data Streams 隨需模式來處理具有不可預測和變動流量模式的工作負載，這樣他們就無需管理容量。他們可以根據串流的資料量進行付費。客戶現在可以使用隨需模式來處理高輸送量的資料串流。在美國東部 (維吉尼亞北部)、美國西部 (奧勒岡) 和歐洲 (愛爾蘭) AWS 區域中，您無需採取任何動作即可使用此功能。當您將資料寫入 Kinesis 隨需串流時，系統將自動擴展至寫入速度高達 10 GB/s。至於其他 AWS 區域，您可以聯繫AWS Support，請求將隨需串流的最高寫入輸送容量提高至 10 GB/s。若要進一步了解，請參閱 Kinesis 資料串流配額與限制文件。</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Amazon 應用程式復原控制器區域轉移和區域自動轉移現在支援 GovCloud (美國) 區域中的 Amazon EKS</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-application-recovery-controller-zonal-shift-autoshift-eks-govcloud-us-regions</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Amazon 應用程式復原控制器 (ARC) 區域轉移和區域自動轉移已擴展其功能，現在支援 GovCloud (美國) 區域中的 Amazon Elastic Kubernetes Service (Amazon EKS)。ARC 區域轉移可協助客戶快速恢復可用區域 (AZ) 中不健康的應用程式，並降低因停電、硬體或軟體故障等事件，而對應用程式造成的影響持續時間和嚴重程度。當 AWS 識別影響該可用區域的潛在故障時，ARC 區域自動轉移可安全地自動從可用區域轉移應用程式流量。Amazon EKS 客戶目前可以在發生故障時，從可用區域轉移流量。您可透過將叢集內流量轉移到健康的可用區域，並確保不在受損可用區域中排定 Pod，進而搭配使用區域轉移與 Amazon EKS。您可以使用 EKS 主控台或 API 來針對區域轉移啟用 EKS 叢集。使用區域轉移或區域自動轉移無需額外付費。適用於區域轉移的 Amazon EKS 支援現在可在所有商業 AWS 區域和 AWS GovCloud (美國) 區域使用。若要開始使用，請閱讀文件。</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Amazon WorkSpaces 安全瀏覽器現在支援內嵌資料編輯功能</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-workspaces-secure-browser-inline-data-redaction</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>今天，AWS 最終使用者運算服務宣布，客戶現在可以在使用 Amazon WorkSpaces 安全瀏覽器存取的網頁內容中編輯指定的資料欄位。透過內嵌資料編輯功能，管理員可以建立政策，在螢幕顯示資料之前，協助預測並編輯特定資料 (例如社會安全號碼、信用卡號碼等)。內嵌資料編輯可自動從網頁顯示的文字中編輯資料，幫助客戶提升存取特定資料的安全性。管理員可以使用 AWS 管理主控台，從 30 種內建資料類型 (例如社會安全號碼、信用卡號碼) 中選擇，或自訂資料類型，來建立編輯政策。管理員可以設定控管執行嚴格程度的政策，和定義應強制編輯的 URL。例如，您可以為支援客服人員定義編輯政策，以協助防止網頁支付系統中顯示信用卡號碼。這樣，您可以確保系統會編輯信用卡號碼欄位，同時不影響存取其他提供支援所需的資料。內嵌資料編輯功能可在所有支援 WorkSpaces 安全瀏覽器的 AWS區域中的入口網站使用，且無需額外付費。如果是初次使用 WorkSpaces 安全瀏覽器，您可以瀏覽定價頁面並將免費試用優惠新增至 AWS 帳戶來開始使用。然後，立即前往Amazon WorkSpaces 安全瀏覽器管理主控台，並建立入口網站。</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>AWS Control Tower 改善了主動控制項的勾點管理，還將主動控制項功能擴展到更多區域。</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/aws-control-tower-hooks-management-proactive-controls-support-additional-regions</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>今天，我們很高興發佈適用於 AWS Control Tower 的主動控制項的改進版 AWS CloudFormation 勾點管理功能。隨著此次更新，針對主動控制項部署的勾點現在將由 AWS Control Tower 管理。此外，我們還在 AWS 加拿大西部 (卡加利) 和亞太地區 (馬來西亞) 區域推出主動控制項功能。這些控制項可協助您達成控制目標，例如建立記錄日誌和監控、加密靜態資料或提高彈性。若要查看主動控制項的完整清單，請參閱控制項參考指南。AWS Control Tower 的主動控制功能利用 AWS CloudFormation 勾點，能在 AWS CloudFormation 佈建資源之前，主動識別並阻止不合規的資源。以前，主動控制部署的勾點受到保護，以確保只有 AWS Control Tower 才能修改勾點，從而防止客戶自行編寫勾點。隨著此次更新，主動控制部署的勾點現在由 AWS Control Tower 服務直接管理，讓客戶能編寫自己的勾點，同時仍可受益於 AWS Control Tower 的主動控制項功能。AWS Control Tower 的主動控制項，可在所有提供 AWS Control Tower 的 AWS 商業區域使用。如需可使用 AWS Control Tower 的完整 AWS 區域清單，請參閱AWS 區域表。您可以從主控台開始部署 AWS Control Tower 控制項或使用AWS Control Tower 控制 API。</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Amazon RDS 藍/綠部署支援儲存容量縮小</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-rds-blue-green-deployments-storage-volume-shrink</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Amazon Relational Database Service (Amazon RDS)藍/綠部署現在支援縮小 RDS 資料庫執行個體的儲存磁碟區的功能，讓您可以更好地利用儲存資源並管理其成本。您現在可以根據預期的應用程式需求增加或減小儲存容量大小。以前，若要縮小儲存磁碟區，您必須手動建立磁碟區較小的新資料庫執行個體，手動將資料從目前資料庫移轉至新建立的資料庫執行個體，然後切換資料庫端點，這通常會導致停機時間延長。藍/綠部署使用您指定的儲存空間大小建立完全託管的暫存環境或綠色資料庫，並使藍色和綠色資料庫保持同步。只需按幾下，您就可以在一分鐘內將綠色資料庫升級為新的生產系統，不會遺失資料，也無需變更切換資料庫端點的應用程式。Amazon RDS 藍/綠部署支援儲存容量縮小，適用於 Amazon RDS for PostgreSQL 主要版本 12 或更高版本、RDS for MySQL 主要版本 5.7 或更高版本，以及 Amazon RDS for MariaDB 主要版本 10.4 及更高版本。只需按幾下即可透過Amazon RDS Console更新 Amazon RDS 藍/綠部署。在此處進一步了解 RDS 藍/綠部署及支援的引擎版本。</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Amazon CloudWatch Application Signals 啟動支援執行時期指標</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-cloudwatch-application-signals-runtime-metrics</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>AWS 今日宣布在 Amazon CloudWatch Application Signals 上正式推出執行時期指標支援。此為在 CloudWatch 上 OpenTelemetry (OTel) 相容的應用程式效能監控 (APM) 功能。您可以檢視 Java 或 Python 應用程式的垃圾回收、記憶體使用量和 CPU 使用情況等執行時期指標，以解決 CPU 使用率高或記憶體洩漏等可能會破壞最終使用者體驗的問題。Application Signals 簡化了對照 AWS 應用程式的主要業務或服務等級目標 (SLO) 疑難排解應用程式效能。無需對來源程式碼進行任何修改，Application Signals 會收集追蹤、應用程式指標（錯誤/延遲/輸送量）、日誌，現在還包括執行時期指標，並將它們整合在單一窗格檢視中。執行時期指標可即時監控應用程式的資源消耗，例如記憶體和 CPU 使用率。透過 Application Signals，您可以透過將執行時期指標中的異常與錯誤/延遲/輸送量等應用程式指標關聯，以了解執行時期指標中的異常是否會對最終使用者產生影響。例如，您可以並排檢視這些指標圖表，以識別是否是垃圾回收暫停時間增加導致服務延遲峰值。此外，您還可以識別執行緒爭用、追蹤記憶體分配模式，以及確定可能導致應用程式變慢或當機的記憶體或 CPU 峰值，進而影響最終使用者體驗。所有提供 Application Signals 的地區提供均支援執行時期指標。執行時期指標會根據 Application Signals 定價收費，請參閱Amazon CloudWatch 定價。若要進一步了解，請參閱文件，以啟用 Amazon CloudWatch Application Signals。</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Amazon Aurora 現在在 Amazon RDS 資料庫預覽環境中支援 PostgreSQL 17.0</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-aurora-postgresql-17-rds-database-preview/</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Amazon Aurora PostgreSQL 相容版現在在Amazon RDS 資料庫預覽環境中支援 PostgreSQL 17.0，讓您能在 Aurora PostgreSQL 上評估 PostgreSQL 17.0。PostgreSQL 17.0 於 2024 年 9 月 26 日由 PostgreSQL 社群發佈。PostgreSQL 17 增加了新功能，例如用於 VACUUM 的全新記憶體管理系統，以及包含建構函數、身分函數和 JSON_TABLE() 函數在內的新 SQL/JSON 功能。若要進一步了解 PostgreSQL 17，請參閱這裡。RDS 資料庫預覽環境中的資料庫執行個體允許測試新的資料庫引擎，而不必自行安裝、佈建和管理 Aurora PostgreSQL 資料庫軟體的預覽版本。叢集最長保留 60 天，並於此保留期滿後自動刪除。Amazon RDS 資料庫預覽環境資料庫執行個體的定價與在美國東部 (俄亥俄) 區域建立的生產 Aurora 執行個體的定價相同。Amazon Aurora的設計具有全球規模無與倫比的高效能及可用性，與 MySQL 及 PostgreSQL 完全相容。其提供內建的安全、連續備份、無伺服器運算、最多 15 個僅供讀取複本、自動多區域複寫以及與其他 AWS 服務整合。若要開始使用 Amazon Aurora，請查看我們的入門頁面。</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Amazon WorkSpaces 推出對 Rocky Linux 的支援</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-workspaces-rocky-linux/</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Amazon Web Services 今天宣布在 Amazon WorkSpaces Personal 上支援Rocky Linux from CIQ，這是一個完全受管的虛擬桌面服務。透過此推出，組織可以為最終使用者提供 RPM Package Manager 相容的環境，針對執行運算密集型應用程式進行最佳化，同時有助於提高 IT 靈活性並降低成本。現在，WorkSpaces Personal 客戶可以從更廣泛的 Linux 發行版中靈活選擇，包括 Rocky Linux、Red Hat Enterprise Linux 和 Ubuntu Desktop。透過 WorkSpaces Personal 上的 Rocky Linux，IT 組織能讓開發人員在與其生產環境一致的環境中工作，並為工程師和資料科學家等高級使用者提供隨需存取 Rocky Linux 環境的服務，無需承擔容量規劃或授權管理的負擔即可快速啟動和關閉執行個體，並透過 AWS Console 管理整個機群。WorkSpaces Personal 提供多種高效能、包含授權且全受管的虛擬桌面套裝軟體，讓組織只需支付所使用資源的費用。WorkSpaces Personal 上的 Rocky Linux 在所有提供 WorkSpaces Personal 的AWS 區域皆可使用，AWS 中國區域除外。根據 WorkSpaces Personal 的執行模式，您將按小時或按月支付虛擬桌面的費用。如需詳細的定價資訊，請參閱Amazon WorkSpaces 定價。若要在 WorkSpaces Personal 上開始使用 Rocky Linux，請登入 AWS 管理主控台並開啟Amazon WorkSpaces 主控台。如需詳細資訊，請參閱Amazon WorkSpaces 管理指南。</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>宣佈針對 Amazon EBS 快照和 EBS 支援的 AMI 提供自訂刪除保護</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/customized-delete-protection-amazon-ebs-snapshots-ebs-backed-amis</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>客戶現在可以進一步自訂資源回收筒規則，以根據標籤排除 EBS 快照和 EBS 支援的 Amazon Machine Image (AMI)。客戶使用資源回收筒，在客戶指定的期間內保留資源，之後再永久刪除，以保護資源不會被意外刪除。新推出的功能可協助客戶自訂資源回收筒規則來保護資源中的重要資料，同時排除不需要刪除保護的非重要資料，進而幫助客戶節省成本。建立區域層級保留規則是一種簡單的方法，可確保 AWS 區域中所有 EBS 快照和 EBS 支援的 AMI 均受到資源回收筒保護，不會被意外刪除。但是，在某些情況下，客戶有安全掃描工作流程，可建立不用於復原的臨時 EBS 快照。客戶也可能擁有不需要額外刪除保護的備份自動化功能。此新增的功能可在資源回收筒中新增資源排除標籤，藉此排除不需要刪除保護的資源，使其不會移至資源回收筒，進而降低儲存成本。這項功能可在所有 AWS 商業區域和 AWS GovCloud (US) 區域使用。客戶可以透過 EC2 主控台、API/CLI 或 SDK 新增排除標籤至資源回收筒規則。若要進一步了解如何使用資源回收筒與排除標籤，請參閱技術文件。</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>AWS 正式宣佈 Amazon EMR 7.4 版</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-emr-7-4-release</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>今天，我們很高興宣布 Amazon EMR 7.4 正式推出。Amazon EMR 7.4 支援 Apache Spark 3.5.2、Apache Hadoop 3.4.0、Trino 446、Apache HBase 2.5.5、Apache Phoenix 5.2.0、Apache Flink 1.19.0、Presto 0.287 以及 Apache Zookeeper 3.9.2。Amazon EMR 7.4 可針對搭配分散式應用程式 (例如 Apache Livy、Apache Hue、JupyterEnterpriseGateway、Apache Ranger 和 Apache Zookeeper 等) 使用的 7 個額外端點啟用傳輸中加密功能。此更新是以先前的 Amazon EMR 7.3 版本為基礎而建置，該版本可為 22 個端點啟用傳輸中加密功能。傳輸中加密功能可讓您藉由保護資料的機密性和完整性，執行可滿足嚴格法規或合規性要求的工作負載。Amazon EMR 7.4 現已在支援 Amazon EMR 的所有區域推出。若要了解如何為 Amazon EMR 叢集啟用傳輸中加密，請檢視TLS 文件。如需詳細資訊，請參閱 Amazon EMR 的區域可用性以及版本備註。</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>使用 CloudFormation Guard 網域特定語言編寫 AWS CloudFormation 勾點</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/author-aws-cloudformation-hooks-cloudformation-guard-domain-specific-language</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>AWS CloudFormation 勾點現在允許客戶使用 AWS CloudFormation Guard 網域特定語言來編寫勾點。客戶可透過 AWS CloudFormation 勾點，在建立、更新或刪除 AWS CloudFormation 堆疊作業之前調用自訂邏輯來檢查資源組態。如果發現不相容的組態，勾點可以封鎖作業，或在發出警告後繼續作業。此版本推出後，您現在只需指向儲存為 S3 物件的 Guard 規則集，即可編寫勾點。在推出此版本之前，客戶會使用程式設計語言編寫勾點，並使用 cfn-cli 在 CloudFormation 登錄檔上將勾點註冊為擴充功能。這個預先建置的勾點可簡化此編寫流程，並為客戶提供擴展現有 Guard 規則 (用於靜態範本驗證) 的功能。現在，您可以在 S3 儲存貯體中將 Guard 規則儲存為個別檔案或壓縮檔案，並在勾點組態中提供 S3 URI。您可在所有AWS 商業區域免費使用 Guard 勾點。若要開始使用，您可以在 CloudFormation 主控台、AWS CLI 或 CloudFormation 中使用新的勾點主控台工作流程。若要進一步了解 Guard 勾點，請參閱AWS DevOps 部落格或參閱Guard 勾點使用者指南。請參閱Guard 使用者指南，以進一步了解 Guard，包括如何編寫 Guard 規則。</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>適用於應用程式和 Network Load Balancer 的負載平衡器容量單位預留功能</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/load-balancer-capacity-unit-reservation-application-balancers/</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Application Load Balancer (ALB)和 Network Load Balancer (NLB) 現在支援負載平衡器容量單元 (LCU) 預留功能，讓您可以主動為負載平衡器設定最低容量，同時補充其根據流量模式自動擴展的現有能力。透過此功能，您可以提前預留保證的最低容量，為預期的流量激增做好準備，在高需求活動期間提升規模和可用性。LCU 預留非常適合活動門票銷售、新商品發行或熱門內容發佈等情況。使用此功能時，您僅需支付預留的 LCU 費用，以及超出預留部分的額外使用費用。您可以透過 ELB 主控台或 API 輕鬆設定此功能。此功能適用於所有商業 AWS 區域的 ALB，包括AWS GovCloud (美國) 區域，以及美國東部 (維吉尼亞北部)、美國東部 (俄亥俄)、美國西部 (奧勒岡)、亞太區域 (香港)、亞太地區 (新加坡)、亞太地區 (雪梨)、亞太地區 (東京)、歐洲 (法蘭克福)、歐洲 (愛爾蘭) 和歐洲 (斯德哥爾摩) 的 NLB。若要進一步了解，請參閱ALB 文件和NLB 文件。</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Amazon OpenSearch Serverless 包含 SQL API 支援</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-opensearch-serverless-sql-api-support/</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Amazon OpenSearch Serverless 現在可讓您透過 REST API、Java 資料庫連線 (JDBC) 和命令列介面 (CLI) 使用 OpenSearch SQL 和 OpenSearch Piped Processing Language (PPL) 查詢資料。Amazon OpenSearch Serverless 是一種無伺服器選項，可讓您輕鬆執行搜尋和分析工作負載，無需考慮基礎架構管理。此全新的 SQL 和 PPL API 支援解決對熟悉的查詢語法的需求，並改善與現有分析工具的整合，有助於使用 OpenSearch Serverless 集合的資料分析師和開發人員。OpenSearch Serverless 中的 SQL API 支援可讓您利用現有的 SQL 技能和工具來分析儲存在集合中的資料。您現在可以使用 AWS CLI 直接從終端執行 SQL 查詢，連接您偏好的商業智慧工具 JDBC 驅動器，並將 SQL 和 PPL 查詢整合到 Java 應用程式。這個功能對於那些希望簡化其分析工作流程或從傳統關聯式資料庫移轉到 OpenSearch Serverless 的組織特別有用。OpenSearch Serverless 上的 SQL API 支援現已在全球 15 個區域提供：美國東部 (俄亥俄)、美國東部 (維吉尼亞北部)、美國西部 (奧勒岡)、亞太地區 (新加坡)、亞太地區 (雪梨)、亞太地區 (東京)、歐洲 (法蘭克福)、歐洲 (愛爾蘭)、歐洲西部 (巴黎)、歐洲西部 (倫敦)、亞太地區南部 (孟買)、南美洲 (聖保羅)、加拿大中部 (蒙特婁)、亞太地區 (首爾) 和 歐洲 (蘇黎世)。有關 Amazon OpenSearch Service 可用性的更多資訊，請參閱AWS 區域服務清單。若要進一步了解 OpenSearch Serverless 上的 SQL API 支援，請參閱文件。</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>宣佈 AWS CloudFormation 支援資源回收筒規則</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/aws-cloudformation-recycle-bin-rules/</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>AWS 今天宣佈 AWS CloudFormation 支援資源回收筒，這是一項資料復原功能，可以還原意外刪除的 Amazon EBS 快照和 EBS 支援的 AMI。您現在可以在 AWS CloudFormation 範本、堆疊和堆疊集中使用資源回收筒規則做為資源。使用 AWS CloudFormation，您現在可以在 CloudFormation 範本建立、編輯和刪除資源回收筒規則，以及將資源回收筒規則整合到自動化基礎設施部署中。例如，區域層級資源回收筒規則可保護建立規則的 AWS 區域中指定類型的所有資源。如果您有一個可自動佈建新帳戶的範本，您現在可以將區域層級的資源回收筒規則新增至該範本。這可確保這些帳戶中的所有 EBS 快照和/或 EBS 支援的 AMI 都會自動受到保護，免受意外刪除，並根據區域層級規則儲存在資源回收筒中。這項功能現可在所有 AWS 商業區域和 AWS GovCloud (US) 區域使用。若要在 AWS CloudFormation 開始使用資源回收筒，請瀏覽AWS CloudFormation主控台。有關使用資源回收筒規則做為範本、堆疊及堆疊集資源的詳細資訊，請參閱AWS CloudFormation使用者指南。在此處進一步了解資源回收筒。</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>AWS Lambda 支援 Amazon S3 作為非同步和串流事件來源的失敗事件目的地。</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/aws-lambda-s3-failed-event-destination-stream-event-sources/</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>AWS Lambda 現在支援 Amazon S3 作為非同步調用以及 Amazon Kinesis 和 Amazon DynamoDB 事件來源映射 (ESM) 的失敗事件目的地。這可讓客戶使用簡單的組態，將失敗的批次處理記錄和函數執行結果路由至 S3，而無需編寫和管理額外的程式碼。使用非同步事件來源或 Lambda 串流事件來源建立事件驅動應用程式的客戶，可以將 Amazon Simple Queue Service (SQS) 和 Amazon Simple Notification Service (SNS) 等服務設定為失敗事件目的地，以儲存失敗調用的結果。但是，當現有的失敗事件目的地無法滿足失敗事件的承載大小需求時，客戶需要編寫自訂邏輯來擷取和重新驅動事件承載資料。隨著今天的公告，客戶現在可將 S3 設定為透過非同步調用、Kinesis ESM 和 DynamoDB ESM 調用 Lambda 函數的失敗事件目的地。這使客戶能夠將完整的事件承載資料交付至失敗事件目的地，並有助於減少管理自訂邏輯的負擔，以可靠地擷取並重新驅動失敗事件資料。此功能現已在所有提供 AWS Lambda 和已設定事件來源或事件目的地的AWS 商業區域全面推出。若要啟用 S3 作為失敗事件目的地，請參閱我們的文件，以設定具有非同步調用、Kinesis ESM和DynamoDB ESM的目的地。使用此功能無需支付額外費用。您需要支付與使用 Amazon S3 相關的費用。</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Amazon Connect Contact Lens 正式推出自訂儀表板</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-connect-contact-lens-custom-dashboards/</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Amazon Connect Contact Lens 現在支援建立自訂儀表板，以及從現有儀表板中新增或移除小工具。藉由這些儀表板，您可以使用自訂的時間週期 (例如，與前週相比)、摘要圖表、時間序列圖表等，來檢視和比較即時和歷史彙總績效、趨勢和洞察。現在，您可以透過變更小工具來進一步自訂這些儀表板，從而建立最能滿足您特定業務需求的檢視。例如，如果您要監控自助服務、佇列和代理程式效能，您可以將總計三種類型的小工具新增至儀表板，以便獲得聯絡中心的效能單一端對端檢視。所有提供 Amazon Connect 的商業AWS 區域皆可使用此功能。若要進一步了解儀表板，請參閱Amazon Connect 管理員指南。若要進一步了解 Amazon Connect (AWS 雲端式聯絡中心)，請造訪Amazon Connect 網站。</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Amazon Aurora Serverless v2 支援調整至零容量</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-aurora-serverless-v2-scaling-zero-capacity/</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Amazon Aurora Serverless v2現在支援調整至 0 個 Aurora 容量單位 (ACU)。此版本可讓資料庫根據資料庫連線，在一段閒置時間後自動暫停。在請求首次連線時，系統會自動恢復並擴展資料庫，以滿足應用程式需求。Aurora Serverless v2 測量 ACU 中的容量，其中每個 ACU 是大約 2 GB (GiB) 記憶體、相對應 CPU 和網路的組合。您可以指定容量範圍，以及資料庫會在此範圍內擴展，以支援應用程式的需求。透過 0 ACU，客戶現在可以在資料庫閒置期間節省成本。資料庫現在可以將規模縮減至 0 ACU，而不是縮減至 0.5 ACU。您只需在 AWS 管理主控台中按幾下，即可輕鬆透過新叢集或現有叢集開始使用此功能。對於新叢集，請將最小容量設定設為 0 ACU。對於現有叢集，請更新為支援的版本，然後將最小容量設定修改為 0 ACU。Aurora PostgreSQL 13.15+、14.12+、15.7+、16.3+ 以及 Aurora MySQL 3.08+ 皆支援 0 ACU。Aurora Serverless 是Amazon Aurora的隨需、自動調整規模組態。它將以精細增量調整容量，以提供應用程式所需的適當數量的資料庫資源。如需了解定價詳細資訊和區域可用性，請造訪Amazon Aurora 定價。若要進一步了解，請閱讀文件，並開始透過AWS 管理主控台中的幾個步驟建立 Aurora Serverless v2 資料庫。</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Amazon ECS 宣布 AZ 重新平衡功能，可加快基礎架構事件後的平均恢復時間</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-ecs-az-rebalancing-speeds-mean-time-recovery-event/</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Amazon Web Services (AWS) 宣布推出適用於Amazon Elastic Container Service(ECS) 的可用區域 (AZ) 重新平衡功能，這項新功能可在 AZ 之間自動將容器化工作負載重新分配。此功能有助於縮短基礎架構事件後的平均恢復時間，使應用程式能夠維持高可用性，而無需手動介入。客戶依照 AWS 的最佳實務，將任務分散到多個可用區域，以提升應用程式的恢復能力並將 AZ 層級故障的影響降至最低。但是，基礎架構事件 (例如 AZ 中斷) 可能會使 ECS 服務的任務分配處於不均勻狀態，可能會對客戶應用程式造成可用性風險。透過 AZ 重新平衡功能，ECS 現在能自動調整任務分配以維持平衡，確保您的應用程式即使面臨故障也能保持高可用性。從今天開始，客戶可以透過 AWS CLI 或 ECS 主控台，為全新和現有 ECS 服務啟用 AZ 重新平衡功能。此功能適用於所有商業區域和 AWS GovCloud (美國) 區域，並支援 ECS Fargate 和 Amazon EC2 啟動類型。若要進一步了解 AZ 重新平衡功能以及如何開始使用，請造訪Amazon ECS 文件頁面。</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Amazon CloudFront 現在支援 gRPC 交付</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-cloudfront-supports-grpc-delivery/</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Amazon CloudFront 現在支援 gRPC 應用程式的交付。gRPC是現代的開放原始碼遠端程序呼叫 (RPC) 架構，可讓用戶端和伺服器之間透過 HTTP/2 連線進行雙向通訊。使用 gRPC 建置的應用程序，可透過高效雙向串流和稱為協定緩衝區的二進位訊息格式享受較低的延遲，而協定緩衝區格式比傳統承載更小 (例如與 RESTful API 搭配使用的 JSON)gRPC 可減少需要連續進行用戶端和伺服器互動之應用程式的通訊延遲，以實現反應快速的使用者體驗。例如，共享搭乘應用程式可透過 gRPC 服務，在使用者裝置上自動更新所請求車輛的位置，而不需要由使用者逐次請求更新。gRPC 能夠解決使用 REST API 進行雙向通訊的部分相關延遲問題。透過 REST API，用戶端會建立與伺服器的連線、提出請求、接收回應，然後終止連線，這會導致每次請求出現額外的延遲。有了 gRPC，用戶端和伺服器可以使用單一連接，獨立並同時地傳送多項訊息。使用 CloudFront 來交付 gRPC 應用程式後，客戶可以享受 gRPC 的完整優點，以及 CloudFront 的全球涵蓋率、速度和安全性。CloudFront 支援來自所有邊緣節點的 gRPC。這不包括由 Sinnet 營運的 Amazon Web Services 中國 (北京) 區域和由 NWCD 營運的 Amazon Web Services 中國 (寧夏) 區域。使用此功能須支付請求和資料傳輸費用。如需額外的詳細資訊，請瀏覽CloudFront 定價頁面和開發人員指南。</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>取得關於銷售管道的全新洞察</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/gain-new-insights-sales-pipeline/</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>目前，Amazon Web Services, Inc.(AWS) 宣佈在分析與洞察儀表板中推出全新管道績效資料視覺效果。合作夥伴現在可以檢查已結案商機的獲勝率、評估績效最佳的客群，並確定未結案商機的必要行動。您可針對關鍵指標 (包括未結案商機計數、需要更新的商機及獲勝率)，按客戶區域、客群和行業深入探究詳細情況。此外，APN 客戶參與 (ACE) 計劃中的 AWS 專業合作夥伴，可透過共同銷售建議分數獲得更多洞察。共同銷售建議分數可評估其解決方案能夠在多大程度上滿足客戶的需求。合作夥伴可以結合最佳績效基準和共同銷售建議分數，了解他們在 AWS 客戶使用案例的共同銷售和交付上最具哪些方面的優勢。若要開始使用，請登入您的 AWS 合作夥伴中心帳戶，然後導覽至分析與洞察儀表板中的「商機」標籤。您可以在這裡找到管道績效和共同銷售建議分數的新視覺效果。若要了解儀表板提供的所有新功能，請登入 AWS 合作夥伴中心並探索分析與洞察使用者指南！</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>AWS Elastic Beanstalk 新增對 Windows Bundled Logs 的支援</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/aws-elastic-beanstalk-windows-bundled-logs</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>AWS Elastic Beanstalk 現在提供 Windows Bundled Logs，可增強在 Windows 平台上執行應用程式之客戶的日誌收集功能。AWS Elastic Beanstalk 目前已經為在 Windows 平台上執行應用程式的客戶提供增強的日誌收集功能。客戶可以請求完整的日誌，而 Beanstalk 會自動收集最重要的日誌檔案，並將其合併在一個可下載的 zip 文件中。此日誌集組合包能夠包含 HealthD Service、IIS、應用程式事件、Elastic Beanstalk 和 Cloud Formation 的日誌。您可在所有 Elastic Beanstalk 支援的 AWS 商業區域及 AWS GovCloud (美國) 區域使用適用於 Windows Bundled Logs 的 Elastic Beanstalk 支援。如需區域和服務產品的完整清單，請參閱AWS 區域。如需有關 Elastic Beanstalk 和 Windows Bundled Logs 的詳細資訊，請參閱 AWS Elastic Beanstalk開發人員指南。</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Amazon CloudFront 宣布推出 VPC 來源</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-cloudfront-vpc-origins/</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Amazon CloudFront 宣布推出虛擬私有雲端 (VPC) 來源的新功能，讓客戶能夠使用 CloudFront 從託管於 VPC 私有子網路中的應用程式交付內容。透過 VPC 來源功能，客戶可以將其 Application Load Balancer (ALB)、Network Load Balancer (NLB) 和 EC2 執行個體置於僅能透過其 CloudFront 分發存取的私有子網路中。這項功能使客戶能輕鬆保護其網路應用程式，讓他們能夠專注於業務發展，同時透過 CloudFront 提升安全性並維持高效能與全球可擴展性。AWS 客戶使用 CloudFront 提供高效能且全球可擴展的應用程式。從 Amazon S3、AWS Elemental Services 和 Lambda 函數 URL 提供內容的客戶，可以使用原始存取控制作為受管解決方案來保護其來源。對於 VPC 中的來源，客戶過去必須將其來源保留在公有子網路中，並使用存取控制清單和其他機制來限制對來源的存取。客戶必須持續投入精力來實作並維護這些解決方案，導致工作内容千篇一律。VPC 來源簡化了安全管理並降低了營運複雜性，使客戶能輕鬆地將 CloudFront 作為應用程式的單一前門。VPC 來源目前僅適用於 AWS 商業區域，完整的 AWS 區域支援清單請參閱此處。與 CloudFront 搭配使用 VPC 來源無須額外費用。CloudFormation 支援即將推出。若要進一步了解，請造訪CloudFront VPC 來源。</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>新一代 Amazon FSx for Lustre 檔案系統現已在美國西部 (加利福尼亞北部) 推出</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-fsx-lustre-file-systems-us-west-california/</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>您現在可以在美國西部 (加利福尼亞北部) AWS 區域建立新一代 Amazon FSx for Lustre 檔案系統。新一代 Amazon FSx for Lustre 檔案系統是採用 AWS Graviton 處理器建構，與上一代檔案系統相比，每 TB 提供更高輸送量 (每 TB 最高 1 GB/秒)，且輸送量成本更低。使用新一代 FSx for Lustre 檔案系統，您可以加速機器學習、高效能運算、媒體和娛樂以及財務模擬工作負載的執行，同時還能降低儲存成本。如需詳細資訊，請瀏覽 Amazon FSx for Lustre產品頁面，並參閱 AWS區域表以了解完整的區域可用性資訊。</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>AWS 合作夥伴中心分析和洞察儀表板中提供新的視覺化</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/visualizations-aws-partner-central-analytics-insights-dashboards</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Amazon Web Services, Inc.(AWS) 宣布在「分析與洞察」儀表板體驗中推出三種新的資料視覺化功能，可在 AWS 合作夥伴中心直接進行存取，協助合作夥伴維持 ACE 資格並改善客戶商機優先順序。在此次推出之前，AWS 合作夥伴依靠 AWS 銷售團隊來傳達 ACE 資格要求，並了解使用中的 AWS 整合。此外，合作夥伴手動評估客戶參與度，以判斷潛在的銷售機會。合作夥伴現在可以利用「商機摘要資料」表格和「概覽」標籤來獲得可行的洞察，以更快地滿足需求並推動客戶成功。第一個洞察是 AWS Marketplace 解決方案參與度分數，以指出客戶購買合作夥伴解決方案的可能性。這有助於合作夥伴識別並優先考慮高潛在商機。第二個洞察可讓合作夥伴了解 AWS ACE 資格的條件，以便與他們分享客戶商機。第三個洞察可讓合作夥伴了解其組織是否已完成 ACE 的 AWS 合作夥伴 CRM 整合，進而避免區域合作夥伴團隊重複進行相同的工作。若要進一步了解 AWS Marketplace 解決方案參與度分數、ACE 資格狀態以及分析與洞察的 CRM 整合狀態，請登入合作夥伴中心並瀏覽分析與洞察使用者指南。</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Amazon EKS 受管節點群組現在支援 AWS Local Zones</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-eks-managed-node-groups-aws-local-zones</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Amazon Elastic Kubernetes Service (Amazon EKS) 現在支援將受管節點群組用於在 AWS Local Zones 上執行的 Kubernetes 工作負載。此增強功能可讓您對 Local Zones 中的 EC2 執行個體利用 EKS 管理節點群組的節點佈建和生命週期自動化功能，讓您的 Kubernetes 應用程式更接近最終使用者，以改善延遲。透過此更新，您可以簡化叢集作業，並統一跨 AWS Local Zones 和區域的 Kubernetes 實務。Amazon EKS 受管節點群組在 Amazon EC2 執行個體和 Auto Scaling 群組之上提供易於使用的抽象層，進而簡化建立、升級和終止 Kubernetes 叢集節點 (EC2 執行個體)。您現在可以使用 Amazon EKS API、AWS 管理主控台或 AWS CloudFormation 和 Terraform 等基礎架構即程式碼工具，在新或現有 EKS 叢集中為 AWS Local Zones 建立 EKS 受管節點群組。此功能無需額外費用，您只需為佈建的 AWS 資源付費。若要進一步了解如何將 Amazon EKS 受管節點群組與 AWS Local Zones 一起使用，請參閱EKS 文件。</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>AWS CloudFormation 勾點引入堆疊和變更集目標調用點</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/aws-cloudformation-hooks-stack-change-set-target-points/</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>AWS CloudFormation勾點宣佈新目標調用點：堆疊和變更集已正式上市。 CloudFormation 勾點可讓您調用自訂邏輯以在 CloudFormation 作業之前檢查資源組態，以強制執行組織最佳實務，並確保只佈建符合規範的資源。今天的推出將此功能擴展到資源屬性之外，使其能夠考量堆疊的整個環境和計劃的 CloudFormation 作業變更，進行更全面的安全檢查。客戶先前使用勾點在佈建之前對資源屬性執行驗證檢查。現在，透過將堆疊鎖定為控制點，您可以針對整個範本承載執行勾點，並同時鎖定多個資源。這可讓您檢查資源關係及其相依性。此外，在建立變更集時，您可以使用變更集調用點來執行勾點，以評估更新的範本和變更集承載。這可讓您自動執行變更集複查，並縮短解決問題的端對端時間。如果發現任何不相容的組態，您可以設定勾點以使部署失敗或發出操作警告。堆疊和變更集目標控制點現在可在所有AWS 商業區域中使用。請參閱勾點開發人員指南以了解更多資訊。</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>亞太區域 (馬來西亞) 現已提供 Amazon VPC IP 位址管理器</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/amazon-vpc-ip-address-manager-malaysia-region</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Amazon Virtual Private CloudIP 位址管理器 (Amazon VPC IPAM)，能讓您更輕鬆地規劃、追蹤和監控 AWS 工作負載的 IP 位址，現已在亞太地區 (馬來西亞) 推出。Amazon VPC IPAM 讓您可以根據路由和安全性需求輕鬆地組織 IP 位址，並設定簡單的商業規則來管理 IP 位址指派。使用 VPC IPAM，您可以自動將 IP 位址指派給 Amazon VPC 和子網路，而無需使用以試算表為基礎的或自製的 IP 位址規劃應用程式，此類應用程式可能會難以維護且耗時。VPC IPAM 會自動追蹤重要的 IP 位址資訊，不需要手動追蹤或進行 IP 位址簿記。VPC IPAM 可保留您的 IP 位址監控資料 (最長可達三年)，您可以利用這些資料對網路安全和路由政策進行回顧分析和稽核。隨著區域的擴展，Amazon VPC IPAM 現已在所有 AWS 區域提供服務，包括 AWS GovCloud (美國) 區域和中國區域。若要進一步了解 IPAM，請參閱IPAM 文件。如需定價的詳細資訊，請參閱Amazon VPC 定價頁面上的 IPAM 標籤。</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>AWS 亞太區域 (馬來西亞) 現已提供 AWS Wickr</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/aws-wickr-available-asia-pacific-malaysia</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>AWS Wickr現在可讓您在亞太地區 (馬來西亞) 建立網路，以協助您滿足資料落地要求和其他義務。AWS Wickr 是以安全為優先的訊息和協作服務，具備協助確保內部和外部通訊安全、私密、合規的功能。AWS Wickr 使用端對端加密保護一對一和群組訊息、視訊和視訊通話、檔案共用、畫面分享，以及位置共用。客戶對於資料擁有完整的管理控制權，包括處理資訊治理政策、設定暫時性訊息選項，以及刪除遺失或遭竊裝置的憑證。您可以將 AWS Wickr 網路的內部和外部對話記錄於由您管理的私密資料存放區內，以供資料保留和稽核之用。AWS Wickr 已在 AWS 美國東部 (維吉尼亞北部)、AWS GovCloud (美國西部)、AWS 加拿大 (中部)、AWS 歐洲 (倫敦、法蘭克福、斯德哥爾摩和蘇黎世) 以及 AWS 亞太地區 (新加坡、雪梨、東京和馬來西亞) 等區域推出。若要進一步了解並開始使用，請參閱以下資源：AWS Wickr 產品詳細資訊頁面AWS Wickr 管理指南</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>AWS Advanced NodeJS 驅動程式已經普遍可用</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/aws-advanced-nodejs-driver</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Amazon Web Services (AWS) Advanced NodeJS 驅動程式現已正式上市，可與Amazon RDS和Amazon AuroraPostgreSQL 和 MySQL 相容資料庫叢集一起使用。此資料庫驅動程式支援更快速的轉換和容錯移轉、聯合身分驗證，以及使用 AWS Secrets Manager 或 AWS Identity and Access Management (IAM) 進行身分驗證。Amazon Web Services (AWS) Advanced NodeJS 驅動程式是獨立的驅動程式，並透過 PostgreSQL 用戶端或 MySQL2 用戶端支援基礎 NodeJS 驅動程式。您可以依照 GitHub 中既定的安裝指南來安裝 PostgreSQL 和 MySQL 套件。驅動程式需要監控資料庫叢集狀態，並得知叢集拓撲，以便判斷新的寫入器。與開放原始碼驅動程式相比，這種方法將寫入器容錯移轉時間降至數秒。AWS Advanced NodeJS 驅動程式是以 Apache 2.0 公用授權的開放原始碼專案形式發行。如需更多詳細資訊，請按一下此處查看入門說明以及有關如何提出問題的指南。</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>AWS CloudFormation 勾點現在支援自訂 AWS Lambda 函數</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2024年11月21日</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>https://aws.amazon.com/about-aws/whats-new/2024/11/aws-cloudformation-hooks-custom-aws-lambda-functions</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>AWS CloudFormation 勾點導入了一個預先構置的勾點，可讓您輕鬆地指向帳戶中的 AWS Lambda 函數。有了 CloudFormation 勾點，您可以提供自訂邏輯，在佈建之前主動評估資源組態。今天推出的版本可讓您將自訂邏輯作為 Lambda 函數提供，從而使您採用更簡單的方法來編寫勾點，並在帳戶中更靈活地託管 Lambda 函數。在推出此版本之前，客戶會使用 CloudFormation CLI (cfn-cli) 來編寫勾點，並將其發佈至 CloudFormation 登錄檔。現在，客戶只需要啟動 Lambda 勾點並傳遞一個 Lambda Amazon Resource Name (ARN)，即可調用勾點。這可讓您在無需重新設定勾點的情況下，直接編輯 Lambda 函數以進行更新。此外，您不再需要將自訂邏輯註冊至 CloudFormation 登錄檔。您可在所有AWS 商業區域免費使用 Lambda 勾點。客戶需要支付 Lambda 的使用費用。如需詳細資訊，請參閱 Lambda 的定價指南。若要開始使用，您可以在 CloudFormation 主控台、AWS CLI 或 CloudFormation 中使用新的勾點主控台工作流程。若要進一步了解 Lambda 勾點，請參閱AWS DevOps 部落格中的詳細功能逐步解說，或參閱Lambda 勾點使用者指南。若要開始建立 Lambda 函數，請參閱AWS Lambda 使用者指南。</t>
         </is>
       </c>
     </row>
